--- a/SID-mapping-bis.xlsx
+++ b/SID-mapping-bis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Library/CloudStorage/OneDrive-Personnel/Documents/xlapak/schc-wg/YANG-DM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733D08A-688C-7C41-A2CB-7E5C67081822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BB1D34-7A80-A246-BA94-D8595264FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="20480" xr2:uid="{79CBBA98-45D0-AB4B-8F46-38D859212AB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="SID Allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="SID-mapping-bis" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
     <sheet name="excluded SID" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="180">
   <si>
     <t>module</t>
   </si>
@@ -514,15 +514,6 @@
     <t>bitmap-compound-ack</t>
   </si>
   <si>
-    <t>/ietf-schc:schc/rule/ietf-schc-compound-ack:bitmap-format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data </t>
-  </si>
-  <si>
-    <t>/ietf-schc:schc/rule/ietf-schc-compound-ack:last-bitmap-compression</t>
-  </si>
-  <si>
     <t xml:space="preserve"> space-id-base-type</t>
   </si>
   <si>
@@ -581,6 +572,12 @@
   </si>
   <si>
     <t>/ietf-schc:schc/rule/universal-option-entry/target-value/value</t>
+  </si>
+  <si>
+    <t>/ietf-schc:schc/rule/bitmap-format</t>
+  </si>
+  <si>
+    <t>/ietf-schc:schc/rule/last-bitmap-compression</t>
   </si>
 </sst>
 </file>
@@ -988,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAE7973-9DF4-B240-B0AB-F84379B61AEA}">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B70"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,10 +1380,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1398,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1428,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1443,10 +1440,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1473,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1488,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1503,10 +1500,10 @@
         <v>3</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1518,10 +1515,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1533,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1548,10 +1545,10 @@
         <v>3</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1563,10 +1560,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1578,10 +1575,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1593,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1608,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1623,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2274,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>156</v>
@@ -2286,10 +2283,10 @@
         <v>2665</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>156</v>
@@ -3045,13 +3042,13 @@
         <v>2790</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -4721,7 +4718,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
-        <f>'SID Allocation'!A327+1</f>
+        <f>'SID-mapping-bis'!A327+1</f>
         <v>2877</v>
       </c>
       <c r="B1" t="s">
@@ -4868,7 +4865,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>'SID Allocation'!A343+1</f>
+        <f>'SID-mapping-bis'!A343+1</f>
         <v>2893</v>
       </c>
       <c r="B14" t="s">
@@ -5113,10 +5110,10 @@
         <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/SID-mapping-bis.xlsx
+++ b/SID-mapping-bis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Library/CloudStorage/OneDrive-Personnel/Documents/xlapak/schc-wg/YANG-DM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BB1D34-7A80-A246-BA94-D8595264FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63551B0B-5E32-5946-B6D6-E54BEE9F1BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="20480" xr2:uid="{79CBBA98-45D0-AB4B-8F46-38D859212AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="SID-mapping-bis" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
-    <sheet name="excluded SID" sheetId="2" r:id="rId3"/>
+    <sheet name="excluded SID" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="193">
   <si>
     <t>module</t>
   </si>
@@ -184,9 +184,6 @@
     <t>/ietf-schc:schc/rule/fragmentation-mode</t>
   </si>
   <si>
-    <t>reserved for ICMPv6</t>
-  </si>
-  <si>
     <t>identity</t>
   </si>
   <si>
@@ -578,6 +575,48 @@
   </si>
   <si>
     <t>/ietf-schc:schc/rule/last-bitmap-compression</t>
+  </si>
+  <si>
+    <t>cda-compress-sent</t>
+  </si>
+  <si>
+    <t>cda-rev-compress-sent</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-base-type</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-checksum</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-code</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-identifier</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-mtu</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-payload</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-pointer</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-sequence</t>
+  </si>
+  <si>
+    <t>fid-icmpv6-type</t>
+  </si>
+  <si>
+    <t>mo-rev-rule-match</t>
+  </si>
+  <si>
+    <t>mo-rule-match</t>
+  </si>
+  <si>
+    <t>"icmpv6"</t>
   </si>
 </sst>
 </file>
@@ -599,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +669,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -643,12 +688,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAE7973-9DF4-B240-B0AB-F84379B61AEA}">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="E353" sqref="E353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1410,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1425,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1440,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1455,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1485,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1500,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1515,10 +1561,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1530,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1545,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,10 +1621,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1590,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1605,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1620,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2271,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2286,10 +2332,10 @@
         <v>3</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,13 +3088,13 @@
         <v>2790</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3140,8 +3186,14 @@
         <f t="shared" si="3"/>
         <v>2805</v>
       </c>
-      <c r="D256" t="s">
-        <v>48</v>
+      <c r="B256" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -3149,11 +3201,29 @@
         <f t="shared" si="3"/>
         <v>2806</v>
       </c>
+      <c r="B257" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>2807</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,36 +3231,90 @@
         <f t="shared" ref="A259:A322" si="4">A258+1</f>
         <v>2808</v>
       </c>
+      <c r="B259" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="4"/>
         <v>2809</v>
       </c>
+      <c r="B260" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>2810</v>
       </c>
+      <c r="B261" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>2811</v>
       </c>
+      <c r="B262" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>2812</v>
       </c>
+      <c r="B263" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>2813</v>
       </c>
+      <c r="B264" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
@@ -3228,10 +3352,10 @@
         <v>2819</v>
       </c>
       <c r="B270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C270" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D270" t="s">
         <v>11</v>
@@ -3243,10 +3367,10 @@
         <v>2820</v>
       </c>
       <c r="B271" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D271" t="s">
         <v>11</v>
@@ -3258,10 +3382,10 @@
         <v>2821</v>
       </c>
       <c r="B272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C272" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D272" t="s">
         <v>11</v>
@@ -3273,13 +3397,13 @@
         <v>2822</v>
       </c>
       <c r="B273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C273" t="s">
+        <v>53</v>
+      </c>
+      <c r="D273" t="s">
         <v>54</v>
-      </c>
-      <c r="D273" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,10 +3490,10 @@
         <v>2836</v>
       </c>
       <c r="B287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C287" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D287" t="s">
         <v>11</v>
@@ -3381,10 +3505,10 @@
         <v>2837</v>
       </c>
       <c r="B288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C288" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D288" t="s">
         <v>11</v>
@@ -3396,10 +3520,10 @@
         <v>2838</v>
       </c>
       <c r="B289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C289" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D289" t="s">
         <v>11</v>
@@ -3411,10 +3535,10 @@
         <v>2839</v>
       </c>
       <c r="B290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C290" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D290" t="s">
         <v>11</v>
@@ -3426,16 +3550,16 @@
         <v>2840</v>
       </c>
       <c r="B291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C291" t="s">
+        <v>60</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" t="s">
         <v>61</v>
-      </c>
-      <c r="D291" t="s">
-        <v>11</v>
-      </c>
-      <c r="E291" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -3444,10 +3568,10 @@
         <v>2841</v>
       </c>
       <c r="B292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C292" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D292" t="s">
         <v>11</v>
@@ -3459,10 +3583,10 @@
         <v>2842</v>
       </c>
       <c r="B293" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C293" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D293" t="s">
         <v>11</v>
@@ -3474,10 +3598,10 @@
         <v>2843</v>
       </c>
       <c r="B294" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C294" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D294" t="s">
         <v>11</v>
@@ -3489,10 +3613,10 @@
         <v>2844</v>
       </c>
       <c r="B295" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C295" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -3519,10 +3643,10 @@
         <v>2848</v>
       </c>
       <c r="B299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C299" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D299" t="s">
         <v>11</v>
@@ -3534,10 +3658,10 @@
         <v>2849</v>
       </c>
       <c r="B300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C300" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D300" t="s">
         <v>11</v>
@@ -3549,10 +3673,10 @@
         <v>2850</v>
       </c>
       <c r="B301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C301" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D301" t="s">
         <v>11</v>
@@ -3564,10 +3688,10 @@
         <v>2851</v>
       </c>
       <c r="B302" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C302" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D302" t="s">
         <v>11</v>
@@ -3579,10 +3703,10 @@
         <v>2852</v>
       </c>
       <c r="B303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C303" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D303" t="s">
         <v>11</v>
@@ -3600,10 +3724,10 @@
         <v>2854</v>
       </c>
       <c r="B305" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C305" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D305" t="s">
         <v>11</v>
@@ -3615,10 +3739,10 @@
         <v>2855</v>
       </c>
       <c r="B306" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C306" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D306" t="s">
         <v>11</v>
@@ -3630,10 +3754,10 @@
         <v>2856</v>
       </c>
       <c r="B307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C307" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D307" t="s">
         <v>11</v>
@@ -3645,10 +3769,10 @@
         <v>2857</v>
       </c>
       <c r="B308" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C308" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D308" t="s">
         <v>11</v>
@@ -3660,10 +3784,10 @@
         <v>2858</v>
       </c>
       <c r="B309" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C309" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D309" t="s">
         <v>11</v>
@@ -3675,10 +3799,10 @@
         <v>2859</v>
       </c>
       <c r="B310" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C310" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D310" t="s">
         <v>11</v>
@@ -3690,10 +3814,10 @@
         <v>2860</v>
       </c>
       <c r="B311" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C311" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D311" t="s">
         <v>11</v>
@@ -3705,10 +3829,10 @@
         <v>2861</v>
       </c>
       <c r="B312" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C312" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D312" t="s">
         <v>11</v>
@@ -3720,10 +3844,10 @@
         <v>2862</v>
       </c>
       <c r="B313" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C313" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D313" t="s">
         <v>11</v>
@@ -3735,10 +3859,10 @@
         <v>2863</v>
       </c>
       <c r="B314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C314" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D314" t="s">
         <v>11</v>
@@ -3750,10 +3874,10 @@
         <v>2864</v>
       </c>
       <c r="B315" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C315" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D315" t="s">
         <v>11</v>
@@ -3765,10 +3889,10 @@
         <v>2865</v>
       </c>
       <c r="B316" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C316" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D316" t="s">
         <v>11</v>
@@ -3780,10 +3904,10 @@
         <v>2866</v>
       </c>
       <c r="B317" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C317" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D317" t="s">
         <v>11</v>
@@ -3843,10 +3967,10 @@
         <v>2875</v>
       </c>
       <c r="B326" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C326" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D326" t="s">
         <v>11</v>
@@ -3858,10 +3982,10 @@
         <v>2876</v>
       </c>
       <c r="B327" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C327" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D327" t="s">
         <v>11</v>
@@ -3873,10 +3997,10 @@
         <v>2877</v>
       </c>
       <c r="B328" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C328" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D328" t="s">
         <v>11</v>
@@ -3918,10 +4042,10 @@
         <v>2883</v>
       </c>
       <c r="B334" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C334" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D334" t="s">
         <v>11</v>
@@ -3933,10 +4057,10 @@
         <v>2884</v>
       </c>
       <c r="B335" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C335" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D335" t="s">
         <v>11</v>
@@ -3948,7 +4072,7 @@
         <v>2885</v>
       </c>
       <c r="D336" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,7 +4081,7 @@
         <v>2886</v>
       </c>
       <c r="D337" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -3966,7 +4090,7 @@
         <v>2887</v>
       </c>
       <c r="D338" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -4011,10 +4135,10 @@
         <v>2894</v>
       </c>
       <c r="B345" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C345" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D345" t="s">
         <v>11</v>
@@ -4026,10 +4150,10 @@
         <v>2895</v>
       </c>
       <c r="B346" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C346" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D346" t="s">
         <v>11</v>
@@ -4041,10 +4165,10 @@
         <v>2896</v>
       </c>
       <c r="B347" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C347" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D347" t="s">
         <v>11</v>
@@ -4056,10 +4180,10 @@
         <v>2897</v>
       </c>
       <c r="B348" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C348" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D348" t="s">
         <v>11</v>
@@ -4071,10 +4195,10 @@
         <v>2898</v>
       </c>
       <c r="B349" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C349" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D349" t="s">
         <v>11</v>
@@ -4086,10 +4210,10 @@
         <v>2899</v>
       </c>
       <c r="B350" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C350" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D350" t="s">
         <v>11</v>
@@ -4101,10 +4225,10 @@
         <v>2900</v>
       </c>
       <c r="B351" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C351" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D351" t="s">
         <v>11</v>
@@ -4115,12 +4239,30 @@
         <f t="shared" si="5"/>
         <v>2901</v>
       </c>
+      <c r="B352" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>2902</v>
       </c>
+      <c r="B353" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
@@ -4158,10 +4300,10 @@
         <v>2908</v>
       </c>
       <c r="B359" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C359" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D359" t="s">
         <v>11</v>
@@ -4173,10 +4315,10 @@
         <v>2909</v>
       </c>
       <c r="B360" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C360" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D360" t="s">
         <v>11</v>
@@ -4188,10 +4330,10 @@
         <v>2910</v>
       </c>
       <c r="B361" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C361" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D361" t="s">
         <v>11</v>
@@ -4203,10 +4345,13 @@
         <v>2911</v>
       </c>
       <c r="B362" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C362" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="D362" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,12 +4359,30 @@
         <f t="shared" si="5"/>
         <v>2912</v>
       </c>
+      <c r="B363" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>2913</v>
       </c>
+      <c r="B364" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
@@ -4251,16 +4414,16 @@
         <v>2918</v>
       </c>
       <c r="B369" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C369" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D369" t="s">
         <v>11</v>
       </c>
       <c r="E369" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -4269,10 +4432,10 @@
         <v>2919</v>
       </c>
       <c r="B370" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C370" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D370" t="s">
         <v>11</v>
@@ -4284,10 +4447,10 @@
         <v>2920</v>
       </c>
       <c r="B371" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C371" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D371" t="s">
         <v>11</v>
@@ -4311,10 +4474,10 @@
         <v>2923</v>
       </c>
       <c r="B374" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C374" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D374" t="s">
         <v>11</v>
@@ -4326,10 +4489,10 @@
         <v>2924</v>
       </c>
       <c r="B375" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C375" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D375" t="s">
         <v>11</v>
@@ -4341,10 +4504,10 @@
         <v>2925</v>
       </c>
       <c r="B376" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C376" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D376" t="s">
         <v>11</v>
@@ -4362,10 +4525,10 @@
         <v>2927</v>
       </c>
       <c r="B378" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C378" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D378" t="s">
         <v>11</v>
@@ -4395,10 +4558,10 @@
         <v>2931</v>
       </c>
       <c r="B382" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C382" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D382" t="s">
         <v>11</v>
@@ -4410,10 +4573,10 @@
         <v>2932</v>
       </c>
       <c r="B383" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C383" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D383" t="s">
         <v>11</v>
@@ -4425,10 +4588,10 @@
         <v>2933</v>
       </c>
       <c r="B384" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C384" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D384" t="s">
         <v>11</v>
@@ -4446,13 +4609,13 @@
         <v>2935</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C386" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D386" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -4461,13 +4624,13 @@
         <v>2936</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -4494,10 +4657,10 @@
         <v>2940</v>
       </c>
       <c r="B391" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C391" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D391" t="s">
         <v>11</v>
@@ -4509,10 +4672,10 @@
         <v>2941</v>
       </c>
       <c r="B392" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C392" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D392" t="s">
         <v>11</v>
@@ -4524,10 +4687,10 @@
         <v>2942</v>
       </c>
       <c r="B393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C393" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D393" t="s">
         <v>11</v>
@@ -4539,7 +4702,7 @@
         <v>2943</v>
       </c>
       <c r="E394" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -4575,10 +4738,10 @@
         <v>2948</v>
       </c>
       <c r="B399" t="s">
+        <v>126</v>
+      </c>
+      <c r="C399" t="s">
         <v>127</v>
-      </c>
-      <c r="C399" t="s">
-        <v>128</v>
       </c>
       <c r="D399" t="s">
         <v>11</v>
@@ -4590,10 +4753,10 @@
         <v>2949</v>
       </c>
       <c r="B400" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C400" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4603,107 +4766,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBBCD7E-72CD-CE4F-8642-7237DFED7836}">
-  <dimension ref="G13:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G13">
-        <v>10141</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G14">
-        <v>10142</v>
-      </c>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <v>10143</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G16">
-        <v>10144</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17">
-        <v>10145</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18">
-        <v>10146</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19">
-        <v>10147</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20">
-        <v>10148</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21">
-        <v>10149</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22">
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23">
-        <v>10151</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24">
-        <v>10152</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25">
-        <v>10153</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26">
-        <v>10154</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27">
-        <v>10155</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28">
-        <v>10156</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G29">
-        <v>10157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17525603-7B01-ED4B-8465-45B422C7775B}">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -4722,13 +4784,13 @@
         <v>2877</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4737,10 +4799,10 @@
         <v>2878</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4749,10 +4811,10 @@
         <v>2879</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4761,10 +4823,10 @@
         <v>2880</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4773,10 +4835,10 @@
         <v>2881</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4785,10 +4847,10 @@
         <v>2882</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4797,10 +4859,10 @@
         <v>2883</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4809,10 +4871,10 @@
         <v>2884</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4821,10 +4883,10 @@
         <v>2885</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4833,10 +4895,10 @@
         <v>2886</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,10 +4907,10 @@
         <v>2887</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4857,10 +4919,10 @@
         <v>2888</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4869,10 +4931,10 @@
         <v>2893</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4881,10 +4943,10 @@
         <v>2894</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4893,10 +4955,10 @@
         <v>2895</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,10 +4967,10 @@
         <v>2896</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4917,10 +4979,10 @@
         <v>2897</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4929,10 +4991,10 @@
         <v>2898</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4941,10 +5003,10 @@
         <v>2899</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -4953,32 +5015,32 @@
         <v>2900</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -4986,10 +5048,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -4997,10 +5059,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -5008,10 +5070,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -5019,10 +5081,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -5030,10 +5092,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -5041,10 +5103,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -5052,10 +5114,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -5063,10 +5125,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -5074,10 +5136,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -5085,10 +5147,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -5096,27 +5158,237 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBBCD7E-72CD-CE4F-8642-7237DFED7836}">
+  <dimension ref="G13:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>10141</v>
+      </c>
+      <c r="K13">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>10142</v>
+      </c>
+      <c r="K14">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>10143</v>
+      </c>
+      <c r="K15">
+        <v>100003</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>10144</v>
+      </c>
+      <c r="K16">
+        <v>100004</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>10145</v>
+      </c>
+      <c r="K17">
+        <v>100005</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>10146</v>
+      </c>
+      <c r="K18">
+        <v>100006</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>10147</v>
+      </c>
+      <c r="K19">
+        <v>100007</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>10148</v>
+      </c>
+      <c r="K20">
+        <v>100008</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>10149</v>
+      </c>
+      <c r="K21">
+        <v>100009</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>10150</v>
+      </c>
+      <c r="K22">
+        <v>100010</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>10151</v>
+      </c>
+      <c r="K23">
+        <v>100011</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>10152</v>
+      </c>
+      <c r="K24">
+        <v>100012</v>
+      </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>10153</v>
+      </c>
+      <c r="K25">
+        <v>100013</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>10154</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>10156</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>10157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/SID-mapping-bis.xlsx
+++ b/SID-mapping-bis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Library/CloudStorage/OneDrive-Personnel/Documents/xlapak/schc-wg/YANG-DM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63551B0B-5E32-5946-B6D6-E54BEE9F1BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC82E66-93B3-314A-AA25-516A00D08A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="20480" xr2:uid="{79CBBA98-45D0-AB4B-8F46-38D859212AB5}"/>
   </bookViews>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAE7973-9DF4-B240-B0AB-F84379B61AEA}">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="E353" sqref="E353"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3306,15 +3306,6 @@
         <f t="shared" si="4"/>
         <v>2813</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
@@ -4762,15 +4753,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17525603-7B01-ED4B-8465-45B422C7775B}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5176,6 +5168,17 @@
       </c>
       <c r="D38" s="4" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/SID-mapping-bis.xlsx
+++ b/SID-mapping-bis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Library/CloudStorage/OneDrive-Personnel/Documents/xlapak/schc-wg/YANG-DM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC82E66-93B3-314A-AA25-516A00D08A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68E4BBF-F32C-A240-929D-12A603E12041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="20480" xr2:uid="{79CBBA98-45D0-AB4B-8F46-38D859212AB5}"/>
+    <workbookView xWindow="5860" yWindow="880" windowWidth="36000" windowHeight="20480" xr2:uid="{79CBBA98-45D0-AB4B-8F46-38D859212AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="SID-mapping-bis" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+      <selection activeCell="B256" sqref="B256:D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3190,7 +3190,7 @@
         <v>48</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>192</v>
@@ -5175,7 +5175,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>192</v>
@@ -5183,6 +5183,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
